--- a/data/output/bases-separadas/-3.xlsx
+++ b/data/output/bases-separadas/-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>9504405000131</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01466431000100</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2021980000134</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07686237000117</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3093776000191</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>02497348000161</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>437311000112</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07237021000174</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>52548435002546</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03028945000100</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>72653009000102</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02428619000127</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>4750478000190</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07116725000199</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>38654802000198</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05467254000138</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>59225268000174</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08943949000137</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>7044736000100</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08013877000129</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2286479000108</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03431716000131</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>7929303000132</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01721128000107</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>8258275000131</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>02666257000102</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>7718633000189</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0446465000170</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>9665020000156</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01079195000170</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>4047851000140</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01618017000170</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>94455334000101</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>05051698000198</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>49175797000157</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02962576000165</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>48838437000125</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07972935000189</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>7309991000138</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03733910000171</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>50958412000107</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02800122000198</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>9225789000153</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04573039000159</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>7858230000135</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05163253000108</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>5230143000103</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04691674000130</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>5939386000204</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08597121000174</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>17505249000151</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>05378593000148</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>55670871000104</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02886959000100</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>3570410000166</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>03526090000147</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>7161053000133</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03024630000194</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>57705097000155</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>06982145000111</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>50473446000101</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>03684517000135</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>4354818000163</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05075026000112</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>5240326000100</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02952736000195</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>5578350000153</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0976049000184</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>63234405000104</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04626774000183</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1755781000197</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>07708533000171</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>5996650000152</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>03972822000122</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>10251429000105</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>02441400000168</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>7764138000106</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0794938000120</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>7827713000172</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>01304124000638</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>5580226000122</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04751365000109</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>2632088000190</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>07447405000111</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>7457600000203</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>06301000122</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>7063698000133</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09515359000176</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>3785767000161</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>07518384000188</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>82739061000130</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06238187000142</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>95621439000148</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0141392000109</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>9269703000194</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01163220000107</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>83742338000146</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>02081089000193</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>17162280000137</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>05066377000167</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>5238398000112</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>05933453000194</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>76576198000118</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>09301989000148</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>4372295000188</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04822217000138</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>4289177000100</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04649065000113</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>40160558000159</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>05413838000120</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>9011161000155</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03281351000106</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>23274194000119</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>05691693000120</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>3360950000115</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0394429004874</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>8795211000170</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>05386949000195</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>5847361000191</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04478936000183</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>4821551000177</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0498299000156</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>7855688000130</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01406163000131</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>11727537000174</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01082065000196</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>8935848000114</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>03708455000154</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>84166446000180</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>08781795000124</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>58673450000125</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>03889142000140</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>6267044000169</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>02648904000153</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>1061867000110</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>03067942000185</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>2918807000133</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>05359741000187</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>2799882000122</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04394568000195</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>2969334000101</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0882673000112</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>5490542000103</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>06330812000181</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>83368837000549</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>05493355000183</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>54038583000179</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>07141180000170</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>9543793000160</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01077832000179</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>3573539000128</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>07328036000148</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>7288750000150</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>03682067000141</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>28179406000100</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>02018622000172</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>8701233000123</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04721517000120</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>7442962000140</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>05537801000104</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>10251429000539</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0643376000114</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>7415176000153</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>01792814000179</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>75910950000152</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04706624000180</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>8329089000146</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04191146000112</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>7563781000414</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>02892522000170</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>2485215000175</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04027245000163</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>1857955000122</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>03180498000100</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>1890043000152</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05409927000101</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>37527613000191</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>05466147000195</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>30980329000127</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02215111000140</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>77945368000157</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>05445336000181</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>28747225000125</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>03484616000254</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>9402151000140</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>08312866000140</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>5816630000152</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>07927084000152</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>2483982000145</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>02028638000166</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>10405133000100</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>05614619000100</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>10772828000111</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>02081165000160</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>12860170000125</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>07063698000214</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>68779503000140</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>01203549000227</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>87639431000180</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>03164273000160</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
